--- a/data/trans_orig/IP07C25_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C25_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5BB2B8-99A3-4FBD-A8ED-78C6512A0240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB787DE7-278D-4953-A466-2C5DBAAA45FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CCFA036C-D9F5-45D3-A5C5-F22C00A01AAB}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{70B4C12B-C210-4EDA-BD41-FB946E91D2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,241 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Moderadamente</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>10,57%</t>
@@ -98,9 +329,6 @@
     <t>18,31%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
     <t>34,12%</t>
   </si>
   <si>
@@ -128,9 +356,6 @@
     <t>38,83%</t>
   </si>
   <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
     <t>51,16%</t>
   </si>
   <si>
@@ -158,177 +383,144 @@
     <t>62,4%</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
     <t>10,22%</t>
   </si>
   <si>
@@ -410,196 +602,49 @@
     <t>57,3%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>11,45%</t>
@@ -678,51 +723,6 @@
   </si>
   <si>
     <t>55,19%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BDDC7C-4717-4A86-B1FE-9F1FFCAF2D96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FF3C5F-CDEC-40C3-986C-CED22541BF60}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1232,10 +1232,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>10860</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1247,208 +1247,208 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>5081</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>16</v>
-      </c>
-      <c r="N4" s="7">
-        <v>15941</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>636</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>636</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>46</v>
-      </c>
-      <c r="D5" s="7">
-        <v>35043</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7">
-        <v>15725</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>71</v>
-      </c>
-      <c r="N5" s="7">
-        <v>50768</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>52542</v>
+        <v>579</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>35104</v>
+        <v>643</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>87646</v>
+        <v>1222</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>586</v>
+        <v>1109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1736</v>
+        <v>2060</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>3668</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1457,28 +1457,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>3668</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1487,306 +1487,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>102698</v>
+        <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>159759</v>
+        <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>5390</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2141</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="7">
-        <v>7531</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>12937</v>
+        <v>1228</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>13901</v>
+        <v>568</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>26837</v>
+        <v>1796</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>22411</v>
+        <v>5390</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>15289</v>
+        <v>2141</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>37699</v>
+        <v>7531</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7">
+        <v>12937</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="7">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13901</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="7">
         <v>40</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>26837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>1228</v>
+        <v>22411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
-        <v>568</v>
+        <v>15289</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N14" s="7">
-        <v>1796</v>
+        <v>37699</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,13 +1801,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1816,13 +1816,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1831,270 +1831,270 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>5684</v>
+        <v>586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>3140</v>
+        <v>1150</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>8824</v>
+        <v>1736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>20101</v>
+        <v>3668</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>27090</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>47191</v>
+        <v>3668</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>28270</v>
+        <v>10860</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>25172</v>
+        <v>5081</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>53442</v>
+        <v>15941</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>35043</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>15725</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>50768</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7">
-        <v>1563</v>
+        <v>52542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="I20" s="7">
-        <v>1082</v>
+        <v>35104</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="N20" s="7">
-        <v>2645</v>
+        <v>87646</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,306 +2103,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>55617</v>
+        <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H21" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I21" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M21" s="7">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="N21" s="7">
-        <v>112101</v>
+        <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>643</v>
+        <v>428</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1222</v>
+        <v>428</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1109</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>950</v>
+        <v>418</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>2060</v>
+        <v>418</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>7987</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>11049</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>19036</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>21972</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>21443</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>43415</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D26" s="7">
-        <v>636</v>
+        <v>33892</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="7">
+        <v>29</v>
+      </c>
+      <c r="I26" s="7">
+        <v>22170</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M26" s="7">
+        <v>64</v>
+      </c>
+      <c r="N26" s="7">
+        <v>56062</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>636</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,303 +2411,303 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7">
-        <v>2324</v>
+        <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I27" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>3918</v>
+        <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>7987</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H28" s="7">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7">
-        <v>11049</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M28" s="7">
-        <v>11</v>
-      </c>
-      <c r="N28" s="7">
-        <v>19036</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>21972</v>
+        <v>1563</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>21443</v>
+        <v>1082</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>43415</v>
+        <v>2645</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>33892</v>
+        <v>5684</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>22170</v>
+        <v>3140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="M30" s="7">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="N30" s="7">
-        <v>56062</v>
+        <v>8824</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>20101</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I31" s="7">
-        <v>428</v>
+        <v>27090</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N31" s="7">
-        <v>428</v>
+        <v>47191</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>28270</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I32" s="7">
-        <v>418</v>
+        <v>25172</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>63</v>
+      </c>
+      <c r="N32" s="7">
+        <v>53442</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>418</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>187</v>
@@ -2719,49 +2719,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D33" s="7">
-        <v>63851</v>
+        <v>55617</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H33" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I33" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M33" s="7">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="N33" s="7">
-        <v>119360</v>
+        <v>112101</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,253 +2772,253 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>30499</v>
+        <v>586</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>188</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1578</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H34" s="7">
-        <v>22</v>
-      </c>
-      <c r="I34" s="7">
-        <v>22055</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2164</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M34" s="7">
-        <v>53</v>
-      </c>
-      <c r="N34" s="7">
-        <v>52554</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="D35" s="7">
-        <v>91161</v>
+        <v>7095</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2069</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H35" s="7">
-        <v>114</v>
-      </c>
-      <c r="I35" s="7">
-        <v>79110</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>12</v>
+      </c>
+      <c r="N35" s="7">
+        <v>9163</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M35" s="7">
-        <v>234</v>
-      </c>
-      <c r="N35" s="7">
-        <v>170270</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C36" s="7">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="D36" s="7">
-        <v>137114</v>
+        <v>30499</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>22</v>
+      </c>
+      <c r="I36" s="7">
+        <v>22055</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="7">
-        <v>128</v>
-      </c>
-      <c r="I36" s="7">
-        <v>97735</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>53</v>
+      </c>
+      <c r="N36" s="7">
+        <v>52554</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="M36" s="7">
-        <v>274</v>
-      </c>
-      <c r="N36" s="7">
-        <v>234849</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D37" s="7">
-        <v>586</v>
+        <v>91161</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H37" s="7">
+        <v>114</v>
+      </c>
+      <c r="I37" s="7">
+        <v>79110</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1578</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>234</v>
+      </c>
+      <c r="N37" s="7">
+        <v>170270</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M37" s="7">
-        <v>3</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2164</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="D38" s="7">
-        <v>7095</v>
+        <v>137114</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>128</v>
+      </c>
+      <c r="I38" s="7">
+        <v>97735</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H38" s="7">
-        <v>4</v>
-      </c>
-      <c r="I38" s="7">
-        <v>2069</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>274</v>
+      </c>
+      <c r="N38" s="7">
+        <v>234849</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="M38" s="7">
-        <v>12</v>
-      </c>
-      <c r="N38" s="7">
-        <v>9163</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3033,13 @@
         <v>266455</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -3048,13 +3048,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>576</v>
@@ -3063,13 +3063,13 @@
         <v>469001</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C25_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C25_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB787DE7-278D-4953-A466-2C5DBAAA45FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62172B34-A5E4-4A54-B96B-2AC751A66E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{70B4C12B-C210-4EDA-BD41-FB946E91D2F4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CDBFC85-EF41-4479-AB68-A0DDE0844302}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="230">
   <si>
     <t>Menores según frecuencia de ir bien en el colegio en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -68,87 +68,186 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
@@ -158,571 +257,475 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,82%</t>
+    <t>2,86%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -829,39 +832,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -913,7 +916,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1024,13 +1027,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1039,6 +1035,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1103,19 +1106,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FF3C5F-CDEC-40C3-986C-CED22541BF60}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A1A9B-0A39-4D28-B004-DCEB7B827A26}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1283,10 +1306,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>636</v>
+        <v>1109</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1298,40 +1321,40 @@
         <v>18</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>636</v>
+        <v>2060</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1340,13 +1363,13 @@
         <v>579</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1355,13 +1378,13 @@
         <v>643</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -1370,61 +1393,61 @@
         <v>1222</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1109</v>
+        <v>636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>2060</v>
+        <v>636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>33</v>
@@ -1540,49 +1563,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>22411</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>15289</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>37699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,55 +1614,55 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>1228</v>
+        <v>12937</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="7">
+        <v>21</v>
+      </c>
+      <c r="I11" s="7">
+        <v>13901</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="7">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>568</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
       <c r="N11" s="7">
-        <v>1796</v>
+        <v>26837</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>8</v>
@@ -1648,13 +1671,13 @@
         <v>5390</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1663,13 +1686,13 @@
         <v>2141</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -1678,64 +1701,64 @@
         <v>7531</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>12937</v>
+        <v>1228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>13901</v>
+        <v>568</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>26837</v>
+        <v>1796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,49 +1767,49 @@
         <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>22411</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>15289</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>37699</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,55 +1865,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7">
-        <v>586</v>
+        <v>52542</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>1150</v>
+        <v>35104</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="N16" s="7">
-        <v>1736</v>
+        <v>87646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,55 +1922,55 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>3668</v>
+        <v>35043</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>15725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="N17" s="7">
-        <v>3668</v>
+        <v>50768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -1956,13 +1979,13 @@
         <v>10860</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -1971,13 +1994,13 @@
         <v>5081</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -1986,64 +2009,64 @@
         <v>15941</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>35043</v>
+        <v>3668</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>15725</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>50768</v>
+        <v>3668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,49 +2075,49 @@
         <v>34</v>
       </c>
       <c r="C20" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>52542</v>
+        <v>586</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>35104</v>
+        <v>1150</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>111</v>
       </c>
       <c r="M20" s="7">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>87646</v>
+        <v>1736</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,55 +2173,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>33892</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I22" s="7">
-        <v>428</v>
+        <v>22170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="N22" s="7">
-        <v>428</v>
+        <v>56062</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,55 +2230,55 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>21972</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I23" s="7">
-        <v>418</v>
+        <v>21443</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N23" s="7">
-        <v>418</v>
+        <v>43415</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -2264,13 +2287,13 @@
         <v>7987</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -2279,13 +2302,13 @@
         <v>11049</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -2294,64 +2317,64 @@
         <v>19036</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>21972</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>21443</v>
+        <v>418</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>43415</v>
+        <v>418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,49 +2383,49 @@
         <v>34</v>
       </c>
       <c r="C26" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>33892</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>22170</v>
+        <v>428</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>147</v>
       </c>
       <c r="M26" s="7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>56062</v>
+        <v>428</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,55 +2481,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>28270</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>25172</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>53442</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,55 +2538,55 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D29" s="7">
-        <v>1563</v>
+        <v>20101</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="I29" s="7">
-        <v>1082</v>
+        <v>27090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="N29" s="7">
-        <v>2645</v>
+        <v>47191</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <v>7</v>
@@ -2572,13 +2595,13 @@
         <v>5684</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -2587,13 +2610,13 @@
         <v>3140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -2602,64 +2625,64 @@
         <v>8824</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>20101</v>
+        <v>1563</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H31" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>27090</v>
+        <v>1082</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M31" s="7">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>47191</v>
+        <v>2645</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,46 +2691,46 @@
         <v>34</v>
       </c>
       <c r="C32" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>28270</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>25172</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>53442</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>187</v>
@@ -2772,49 +2795,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="D34" s="7">
-        <v>586</v>
+        <v>137114</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>188</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="I34" s="7">
-        <v>1578</v>
+        <v>97735</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M34" s="7">
-        <v>3</v>
+        <v>274</v>
       </c>
       <c r="N34" s="7">
-        <v>2164</v>
+        <v>234849</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,55 +2846,55 @@
         <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="D35" s="7">
-        <v>7095</v>
+        <v>91161</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="I35" s="7">
-        <v>2069</v>
+        <v>79110</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M35" s="7">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="N35" s="7">
-        <v>9163</v>
+        <v>170270</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7">
         <v>31</v>
@@ -2880,13 +2903,13 @@
         <v>30499</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -2895,13 +2918,13 @@
         <v>22055</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M36" s="7">
         <v>53</v>
@@ -2910,64 +2933,64 @@
         <v>52554</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>91161</v>
+        <v>7095</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H37" s="7">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7">
-        <v>79110</v>
+        <v>2069</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M37" s="7">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7">
-        <v>170270</v>
+        <v>9163</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,40 +2999,40 @@
         <v>34</v>
       </c>
       <c r="C38" s="7">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>137114</v>
+        <v>586</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H38" s="7">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>97735</v>
+        <v>1578</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="M38" s="7">
-        <v>274</v>
+        <v>3</v>
       </c>
       <c r="N38" s="7">
-        <v>234849</v>
+        <v>2164</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>226</v>
@@ -3070,6 +3093,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C25_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C25_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62172B34-A5E4-4A54-B96B-2AC751A66E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCCB63F-1B18-4373-B426-7C3AACDEF033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CDBFC85-EF41-4479-AB68-A0DDE0844302}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D78905A-ED37-46F8-A876-05BC52C8416C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="232">
   <si>
     <t>Menores según frecuencia de ir bien en el colegio en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -101,10 +101,10 @@
     <t>52,57%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -113,16 +113,13 @@
     <t>24,91%</t>
   </si>
   <si>
-    <t>77,16%</t>
-  </si>
-  <si>
     <t>40,36%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>73,59%</t>
+    <t>75,55%</t>
   </si>
   <si>
     <t>Un Poco</t>
@@ -131,13 +128,13 @@
     <t>27,37%</t>
   </si>
   <si>
-    <t>78,78%</t>
+    <t>84,26%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>61,02%</t>
+    <t>61,82%</t>
   </si>
   <si>
     <t>Nada</t>
@@ -146,346 +143,352 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>53,4%</t>
   </si>
   <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>47,93%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
   </si>
   <si>
     <t>43,58%</t>
   </si>
   <si>
-    <t>57,63%</t>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
   </si>
   <si>
     <t>36,33%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,94%</t>
+    <t>4,03%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -494,103 +497,103 @@
     <t>50,83%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>44,56%</t>
   </si>
   <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
   </si>
   <si>
     <t>47,67%</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
   </si>
   <si>
     <t>36,14%</t>
   </si>
   <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
   </si>
   <si>
     <t>47,96%</t>
   </si>
   <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
   </si>
   <si>
     <t>42,1%</t>
   </si>
   <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>10,44%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>6,86%</t>
+    <t>5,84%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>2,74%</t>
@@ -605,124 +608,127 @@
     <t>51,46%</t>
   </si>
   <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
   </si>
   <si>
     <t>48,25%</t>
   </si>
   <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>44,97%</t>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
   </si>
   <si>
     <t>34,21%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>39,06%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
   </si>
   <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
     <t>0,78%</t>
   </si>
   <si>
+    <t>3,5%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1137,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A1A9B-0A39-4D28-B004-DCEB7B827A26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD519C64-2E1B-4F5A-8391-D32BA1293CF6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1369,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1378,7 +1384,7 @@
         <v>643</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
@@ -1393,19 +1399,19 @@
         <v>1222</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1414,13 +1420,13 @@
         <v>636</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1444,19 +1450,19 @@
         <v>636</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1516,13 +1522,13 @@
         <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1531,13 +1537,13 @@
         <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -1546,18 +1552,18 @@
         <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1575,13 @@
         <v>22411</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -1584,13 +1590,13 @@
         <v>15289</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -1599,13 +1605,13 @@
         <v>37699</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1626,13 @@
         <v>12937</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -1635,10 +1641,10 @@
         <v>13901</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>50</v>
@@ -1713,7 +1719,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
@@ -1764,7 +1770,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1824,13 +1830,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1839,13 +1845,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1854,13 +1860,13 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,7 +2027,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
@@ -2072,7 +2078,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2132,13 +2138,13 @@
         <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -2147,13 +2153,13 @@
         <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21" s="7">
         <v>198</v>
@@ -2162,13 +2168,13 @@
         <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2329,13 @@
         <v>140</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2344,7 +2350,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2353,13 +2359,13 @@
         <v>418</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2368,19 +2374,19 @@
         <v>418</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2395,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2404,13 +2410,13 @@
         <v>428</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2419,13 +2425,13 @@
         <v>428</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2446,13 @@
         <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -2455,13 +2461,13 @@
         <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27" s="7">
         <v>131</v>
@@ -2470,18 +2476,18 @@
         <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2493,13 +2499,13 @@
         <v>28270</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -2508,13 +2514,13 @@
         <v>25172</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>63</v>
@@ -2523,13 +2529,13 @@
         <v>53442</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2550,13 @@
         <v>20101</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -2559,13 +2565,13 @@
         <v>27090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>65</v>
@@ -2574,13 +2580,13 @@
         <v>47191</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2601,13 @@
         <v>5684</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -2610,13 +2616,13 @@
         <v>3140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -2625,19 +2631,19 @@
         <v>8824</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
         <v>2</v>
@@ -2646,13 +2652,13 @@
         <v>1563</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2661,13 +2667,13 @@
         <v>1082</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -2676,19 +2682,19 @@
         <v>2645</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2703,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2718,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2733,7 +2739,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2754,13 @@
         <v>55617</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33" s="7">
         <v>75</v>
@@ -2763,13 +2769,13 @@
         <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M33" s="7">
         <v>144</v>
@@ -2778,13 +2784,13 @@
         <v>112101</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2807,13 @@
         <v>137114</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H34" s="7">
         <v>128</v>
@@ -2816,13 +2822,13 @@
         <v>97735</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M34" s="7">
         <v>274</v>
@@ -2831,13 +2837,13 @@
         <v>234849</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2858,13 @@
         <v>91161</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H35" s="7">
         <v>114</v>
@@ -2867,13 +2873,13 @@
         <v>79110</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>234</v>
@@ -2882,13 +2888,13 @@
         <v>170270</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2909,13 @@
         <v>30499</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -2918,13 +2924,13 @@
         <v>22055</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>53</v>
@@ -2933,19 +2939,19 @@
         <v>52554</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="7">
         <v>8</v>
@@ -2954,13 +2960,13 @@
         <v>7095</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -2969,13 +2975,13 @@
         <v>2069</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -2984,19 +2990,19 @@
         <v>9163</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -3005,13 +3011,13 @@
         <v>586</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3020,13 +3026,13 @@
         <v>1578</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -3035,13 +3041,13 @@
         <v>2164</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3062,13 @@
         <v>266455</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -3071,13 +3077,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M39" s="7">
         <v>576</v>
@@ -3086,18 +3092,18 @@
         <v>469001</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C25_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C25_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCCB63F-1B18-4373-B426-7C3AACDEF033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{979A1346-9E66-4CFB-8E70-B9866800385A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D78905A-ED37-46F8-A876-05BC52C8416C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C0AF6754-F27B-47C8-9FF5-99550B8DD70A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="224">
   <si>
     <t>Menores según frecuencia de ir bien en el colegio en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,670 +65,646 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
   </si>
   <si>
     <t>38,14%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1143,8 +1119,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD519C64-2E1B-4F5A-8391-D32BA1293CF6}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB340FA9-FB5E-48B3-B45C-ECDE2E61D9F9}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1261,10 +1237,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>11929</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1276,193 +1252,193 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>24072</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>36002</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>1109</v>
+        <v>13592</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>950</v>
+        <v>18659</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="N5" s="7">
-        <v>2060</v>
+        <v>32251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>579</v>
+        <v>4889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>643</v>
+        <v>4535</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>1222</v>
+        <v>9423</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>636</v>
+        <v>763</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>636</v>
+        <v>1518</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1471,13 +1447,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1486,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1501,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,306 +1492,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>2324</v>
+        <v>31173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>3918</v>
+        <v>79194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>22411</v>
+        <v>12640</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>15289</v>
+        <v>35495</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="N10" s="7">
-        <v>37699</v>
+        <v>48136</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>12937</v>
+        <v>30175</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>13901</v>
+        <v>50507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="N11" s="7">
-        <v>26837</v>
+        <v>80682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6745</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
-        <v>5390</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
       <c r="I12" s="7">
-        <v>2141</v>
+        <v>6274</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>7531</v>
+        <v>13019</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>1228</v>
+        <v>2762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>568</v>
+        <v>3032</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>1796</v>
+        <v>5794</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>7469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>8013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,306 +1800,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7">
-        <v>41965</v>
+        <v>52866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="N15" s="7">
-        <v>73863</v>
+        <v>155644</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>52542</v>
+        <v>24835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>35104</v>
+        <v>40139</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
+        <v>73</v>
+      </c>
+      <c r="N16" s="7">
+        <v>64975</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="N16" s="7">
-        <v>87646</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>35043</v>
+        <v>42058</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>15725</v>
+        <v>14610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="N17" s="7">
-        <v>50768</v>
+        <v>56668</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>10860</v>
+        <v>3750</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>5081</v>
+        <v>6625</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>15941</v>
+        <v>10374</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>3668</v>
+        <v>848</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>3668</v>
+        <v>1719</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>586</v>
+        <v>692</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1150</v>
+        <v>2733</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>1736</v>
+        <v>3425</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,261 +2108,261 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>102698</v>
+        <v>72183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>57060</v>
+        <v>64978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>159759</v>
+        <v>137161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>33892</v>
+        <v>15263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>22170</v>
+        <v>21850</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N22" s="7">
-        <v>56062</v>
+        <v>37113</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7">
-        <v>21972</v>
+        <v>24581</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I23" s="7">
-        <v>21443</v>
+        <v>24289</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N23" s="7">
-        <v>43415</v>
+        <v>48870</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10859</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="7">
         <v>6</v>
       </c>
-      <c r="D24" s="7">
-        <v>7987</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
       <c r="I24" s="7">
-        <v>11049</v>
+        <v>4342</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N24" s="7">
-        <v>19036</v>
+        <v>15201</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>2781</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>418</v>
+        <v>4258</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>418</v>
+        <v>7038</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2395,43 +2371,43 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>428</v>
+        <v>1632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>428</v>
+        <v>1632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,306 +2416,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>63851</v>
+        <v>53483</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H27" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I27" s="7">
-        <v>55509</v>
+        <v>56371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N27" s="7">
-        <v>119360</v>
+        <v>109854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D28" s="7">
-        <v>28270</v>
+        <v>64668</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I28" s="7">
-        <v>25172</v>
+        <v>121557</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="N28" s="7">
-        <v>53442</v>
+        <v>186225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="D29" s="7">
-        <v>20101</v>
+        <v>110406</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="I29" s="7">
-        <v>27090</v>
+        <v>108065</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="N29" s="7">
-        <v>47191</v>
+        <v>218472</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D30" s="7">
-        <v>5684</v>
+        <v>26242</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I30" s="7">
-        <v>3140</v>
+        <v>21775</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="N30" s="7">
-        <v>8824</v>
+        <v>48017</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D31" s="7">
-        <v>1563</v>
+        <v>7154</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" s="7">
         <v>11</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
       <c r="I31" s="7">
-        <v>1082</v>
+        <v>8916</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N31" s="7">
-        <v>2645</v>
+        <v>16069</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H32" s="7">
         <v>12</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>11834</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N32" s="7">
-        <v>0</v>
+        <v>13070</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>11</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,370 +2724,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="D33" s="7">
-        <v>55617</v>
+        <v>209705</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H33" s="7">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="I33" s="7">
-        <v>56484</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M33" s="7">
-        <v>144</v>
+        <v>576</v>
       </c>
       <c r="N33" s="7">
-        <v>112101</v>
+        <v>481853</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>146</v>
-      </c>
-      <c r="D34" s="7">
-        <v>137114</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H34" s="7">
-        <v>128</v>
-      </c>
-      <c r="I34" s="7">
-        <v>97735</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M34" s="7">
-        <v>274</v>
-      </c>
-      <c r="N34" s="7">
-        <v>234849</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>120</v>
-      </c>
-      <c r="D35" s="7">
-        <v>91161</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H35" s="7">
-        <v>114</v>
-      </c>
-      <c r="I35" s="7">
-        <v>79110</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M35" s="7">
-        <v>234</v>
-      </c>
-      <c r="N35" s="7">
-        <v>170270</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="7">
-        <v>31</v>
-      </c>
-      <c r="D36" s="7">
-        <v>30499</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H36" s="7">
-        <v>22</v>
-      </c>
-      <c r="I36" s="7">
-        <v>22055</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M36" s="7">
-        <v>53</v>
-      </c>
-      <c r="N36" s="7">
-        <v>52554</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="7">
-        <v>8</v>
-      </c>
-      <c r="D37" s="7">
-        <v>7095</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H37" s="7">
-        <v>4</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2069</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M37" s="7">
-        <v>12</v>
-      </c>
-      <c r="N37" s="7">
-        <v>9163</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P37" s="7" t="s">
+      <c r="A34" t="s">
         <v>223</v>
       </c>
-      <c r="Q37" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
-        <v>586</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="7">
-        <v>2</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1578</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M38" s="7">
-        <v>3</v>
-      </c>
-      <c r="N38" s="7">
-        <v>2164</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>306</v>
-      </c>
-      <c r="D39" s="7">
-        <v>266455</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" s="7">
-        <v>270</v>
-      </c>
-      <c r="I39" s="7">
-        <v>202546</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M39" s="7">
-        <v>576</v>
-      </c>
-      <c r="N39" s="7">
-        <v>469001</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>231</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
